--- a/biology/Microbiologie/Developayellaceae/Developayellaceae.xlsx
+++ b/biology/Microbiologie/Developayellaceae/Developayellaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Developayellales, Developea
 Les Developayellaceae, uniques représentants de l'ordre des Developayellales et de la classe des Developea, sont une famille d'eucaryotes unicellulaires hétérocontes. Ce sont des bactérivores ou eucaryovores marins, certains flagellés.
@@ -512,16 +524,18 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon le NCBI  (3 décembre 2023)[1] :
-Developayella Tong, 1995[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon le NCBI  (3 décembre 2023) :
+Developayella Tong, 1995
 Developayella elegans Tong, 1995
-Develorapax Karpov &amp; Aleoshin, 2016[3]
+Develorapax Karpov &amp; Aleoshin, 2016
 Develorapax marinus Karpov et Aleoshin 2016
-Mediocremonas del Campo &amp; Weiler, 2020[4]
+Mediocremonas del Campo &amp; Weiler, 2020
 Mediocremonas mediterraneus del Campo &amp; Weiler,
-Trois autres genres ont été décrits en 2022[5] :
+Trois autres genres ont été décrits en 2022 :
 Cubaremonas Tikhonenkov, Cho &amp; Keeling, 2022
 Cubaremonas variflagellatum
 Develocanicus Tikhonenkov, Cho, Mylnikov &amp; Keeling, 2022
